--- a/TABITHA.xlsx
+++ b/TABITHA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="17955" windowHeight="10770" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="17955" windowHeight="10770" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 20" sheetId="1" r:id="rId1"/>
@@ -24,12 +29,12 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="167">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -528,11 +533,14 @@
   <si>
     <t>DEC</t>
   </si>
+  <si>
+    <t>PAID ON 7/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -860,89 +868,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="25">
-          <cell r="E25">
-            <v>3300</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>4600</v>
-          </cell>
-        </row>
         <row r="33">
           <cell r="H33" t="str">
             <v>BL</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>4600</v>
           </cell>
         </row>
         <row r="46">
@@ -950,108 +878,20 @@
             <v>893</v>
           </cell>
         </row>
-        <row r="47">
-          <cell r="H47">
-            <v>893</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>893</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="28">
-          <cell r="E28">
-            <v>36300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="28">
-          <cell r="E28">
-            <v>40300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="28">
-          <cell r="E28">
-            <v>20500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="28">
-          <cell r="E28">
-            <v>15500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="28">
-          <cell r="E28">
-            <v>21500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="28">
-          <cell r="E28">
-            <v>23500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="28">
-          <cell r="E28">
-            <v>21500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="28">
-          <cell r="E28">
-            <v>20000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="28">
-          <cell r="E28">
-            <v>29000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="28">
-          <cell r="E28">
-            <v>30000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="28">
-          <cell r="E28">
-            <v>38000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="28">
-          <cell r="E28">
-            <v>39000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
@@ -1101,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1136,7 +976,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2137,7 +1977,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>E7+E18</f>
@@ -3931,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -7281,8 +7121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7377,10 +7217,12 @@
         <f>C6+D6+E6</f>
         <v>3000</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>3000</v>
+      </c>
       <c r="H6" s="17">
         <f>F6-G6</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15">
@@ -7435,10 +7277,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>3000</v>
+      </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15">
@@ -7611,10 +7455,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>3000</v>
+      </c>
       <c r="H14" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15">
@@ -7694,10 +7540,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>2000</v>
+      </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -7806,10 +7654,12 @@
         <f>C21+D21+E21</f>
         <v>3000</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16">
+        <v>3000</v>
+      </c>
       <c r="H21" s="17">
         <f>F21-G21</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15">
@@ -7835,10 +7685,12 @@
         <f>C22+D22+E22</f>
         <v>5400</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16">
+        <v>3300</v>
+      </c>
       <c r="H22" s="17">
         <f>F22-G22</f>
-        <v>5400</v>
+        <v>2100</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -7943,10 +7795,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="16">
+        <v>4500</v>
+      </c>
       <c r="H26" s="17">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15">
@@ -7972,10 +7826,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16">
+        <v>2500</v>
+      </c>
       <c r="H27" s="17">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -8078,11 +7934,11 @@
       </c>
       <c r="G31" s="16">
         <f t="shared" ref="G31:I31" si="4">SUM(G6:G30)</f>
-        <v>15000</v>
+        <v>39300</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="4"/>
-        <v>71070</v>
+        <v>46770</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="4"/>
@@ -8100,7 +7956,7 @@
       </c>
       <c r="H32" s="28">
         <f>H14+E7+E18+3000+K19</f>
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -8174,7 +8030,7 @@
       </c>
       <c r="F37" s="38">
         <f>G31</f>
-        <v>15000</v>
+        <v>39300</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
@@ -8317,14 +8173,14 @@
         <v>82</v>
       </c>
       <c r="C45">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="51" t="s">
         <v>82</v>
       </c>
       <c r="G45">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="3"/>
@@ -8425,13 +8281,21 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40" t="s">
+        <v>166</v>
+      </c>
       <c r="B52" s="26"/>
-      <c r="C52" s="42"/>
+      <c r="C52" s="42">
+        <v>5055</v>
+      </c>
       <c r="D52" s="26"/>
-      <c r="E52" s="40"/>
+      <c r="E52" s="40" t="s">
+        <v>166</v>
+      </c>
       <c r="F52" s="26"/>
-      <c r="G52" s="42"/>
+      <c r="G52" s="42">
+        <v>5055</v>
+      </c>
       <c r="H52" s="26"/>
       <c r="I52" s="3"/>
     </row>
@@ -8479,26 +8343,26 @@
       </c>
       <c r="C56" s="45">
         <f>SUM(C44:C55)</f>
-        <v>35102</v>
+        <v>41157</v>
       </c>
       <c r="D56" s="45">
         <f>B56-C56</f>
-        <v>47073</v>
+        <v>41018</v>
       </c>
       <c r="E56" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="45">
         <f>F37+F38+F41+F40-G42</f>
-        <v>24605</v>
+        <v>48905</v>
       </c>
       <c r="G56" s="45">
         <f>SUM(G44:G55)</f>
-        <v>35102</v>
+        <v>41157</v>
       </c>
       <c r="H56" s="45">
         <f>F56-G56</f>
-        <v>-10497</v>
+        <v>7748</v>
       </c>
       <c r="I56" s="43"/>
     </row>
@@ -9349,7 +9213,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>H14+E7+E18</f>
@@ -10603,7 +10467,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>H14+E7+E18</f>
@@ -11865,7 +11729,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>H19-1000</f>
@@ -13102,7 +12966,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>H14+E7+E18</f>
@@ -14340,7 +14204,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="28">
         <f>H14+E7+E18+3000+K19</f>
